--- a/steel/data/up-stream/焦炭/焦炭产量.xlsx
+++ b/steel/data/up-stream/焦炭/焦炭产量.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Projects\ffa\steel\data\up-stream\焦炭\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Project\ffa\steel\data\up-stream\焦炭\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D4CFB5-134E-442D-82AF-10D3B4B5892F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC62B69-3147-4AA9-89C5-C5D103ED16B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="2213" windowWidth="28800" windowHeight="14685" xr2:uid="{76514104-05E1-4E33-BDA9-42E9BE5113C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{76514104-05E1-4E33-BDA9-42E9BE5113C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>howard</author>
+    <author>FUDIAN</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6CA7DE59-F610-4B5D-B2AF-53B5D5392A51}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{04B96402-AA68-4983-A011-808163A2BB47}">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>yVjpCgZpNvMshuzLZFyXmprY7fPmIsMmF4zvzCGYtDntn2WueAxKMSA7kHPTMbOVwC/AomWRVFsIY11T+M7arY+b4YMAHVIjfm4B2vwmpSxeOOAVxPv412B2I07IuhWhJ3+gipSdD8LfHS9CsVEeZa3ciQ8pcxW6o+ArKUXh+5iSa/cCi8ZSV3nhBAE3Q4m1OBBzuaADEd8eWHSFsc+8sZbpH49V88P4HpDAAACjQQo4YG39Ds5jzw9ron7jLRurhIp31Yyf/3gjktSbO5coBVdUfDiDrf2BRorUVZWt5JSzzMrBXOzjcfW1F7E/zK3F1Dhh37mOMPuh22duQB66Wtcue1HMf84AgL4AxS9Zpv25BDaZa8ML4IzxU0ja+SAF6XuJ4oMsrNBHTBH3N5a7GTZ5J6jbW/7tYBV6M4h1bYQqxpovQZXga9UZT0+UVqsv4jz5FclWafNBPt+pgzBvAhkrakm7VZaiNghD0gZyBZ0x9Ihmuqus0cnFdzjuHm2/nLhxGqg/PjhWHL5pcyuyOG2n1otO1RNHHzMrLm01KBT13kCOY8mcg5jeOEaBnYcj1TsmFNrNcKFPsFg0myc5lA7HJBjs7jlMWJY2PHFPQED8uzc9TEiLNzc8dA6AhToVkvopILRpg/IeUjwTHgY3+3ml/ULqYGgFcDbw0TLPHs19qZ5UwBK02ClOiZG7F0z+Pi/nhyAl3AgK9HhW3R7rINz5nHCxaJlnLOmnYWWo++oBHDUHDt3kkqBN7C/1miJ46KtY7gzmSkYQmOgZ9bqXxRUFkyTkD1Axb4AUkXeWw/d2zpUlPjzD8yNoupNQkK6Sf6ik+VjgDSHPgo1Vhqnc1GY9TfJjg8BOB174Y3/KcINCG2Fb7iP9MVNZDuIMvg8xMwpG/t6Om1eOXe3VQ9YUY0FkKAxsdsb8VkhLGtU4LKGrDuL+YXaVwhl+NEK/wKlof9eFOvwDLcv+6JSWPIiqqD1ugDOu5HQ/dXy+iHuqfqw=</t>
+          <t>yVjpCgZpNvOHlEoAN60+iXcNR8qcjD2afR3U+XlDrUTEX5W5KWYQZl2WlS6znR8JdtRv8fy9hcGzGgX1t8jwbDwAx0EUQZsw3ZWNu8RJYhGO4TcQ9l1JkQHbe3Y9+FG0Tmzb5nAqIClWWKfYkQKr3HY3DNkUELEitQOt11rUEoTH9AyAvxvPtRPK/Y6fy4lztRWL3b59G1X0DqJyBOm3Kr9IpVHEqbaYQGwOYp96ngY3XEkU/HYsgIFBDln5ratCZy4TG/8RlD87yYJuUQnovpCg8aeykhWplpgX60WMzNwEEQqFR6PYKv2IIBn87r5IWpK9ISRYGlMwdIQ2b9TTs3aCeJqseIbpVwACP19elkrPv2PM/1UNQfHFjRkVer9a0M4m7rN8KiAnaQlOf870twbiYbOrTutqg3Ik5kHVydnovO3gIIvwsKvJ/P+erQVknSBj3dKaf22gHcRrQgn0LV6Jk0bS6/Gg0nhKMkU4aJ5ClW4hQ/s2eS+TfwrpStP1PM/8OBt0wEFTzcx6whuKJlkgD6k0fXvvShnh3kxAr+ov/LGsh9byd69bShqkjMfHouHaCXEb512+YIJRs4pDKkEU21WQ3RuHTRvo0T8znKJoVdlCLPX6qylqURQBQa3fFU/lf+fn0P+KkyezHxWLYqtLj+MfvarqnsI4FMTBjD1SQE/epb4bPKzTzPEsVpLUy2js8xRdyeZQOlu/D/0va56eiXq8QH3IxGrwj+WdKBCdfq0ZQ0xtWW1SEOhZRKigzz7xdzWypUmZR0FYS9/+z3m7tXn4eyX2nlsWIdm42kNpKglYuWvSyrzlPBy2s1TuweOSaF8ueTitZ+Uz/v55yucAEmafhC8JA6VfCMg/LtETxXSJteK5r8YCsfTcspiK9pSNpDXBiLzVzepqdDGZfZKWFz5s/HfHcIG1qjKYWuqwZPQe0dS0NauzdVjhCDICjXouijlUFgSl7ICiAYGRqUGGWMYzE3Pjf2DEmi+GjAkXEaZiQoVPaR7NLuIivsPD9hFnOKdwF0zgCOD6139kH9EX2OWyDV3Abph/PKi8wVPg7JImjztqXkY++vkn3R0zJ2/S6R1dSHq8RPxYIFA9hASSBqOymuuzdIyVVbEsk5VUEFAuy4vu5XkMptLowbqs43iPHIbaebVltIGjOrPxdk/OXZOm/jPHlgvBJ/Yv0DAWSFFtCtdYpZ/rK2XAAVl7DhhmFfyj/k81GxthJbIEu38WMPnLWXCmnR08B7H5hAGfM0cv8HF29Qd6M5UfVgjbioV9IeEIHzaR53q6o+IVBLU/Ru2KCi/Y5t3S7uo17UgtISeraXRy0wiUGIaxB55Eu5eWlZlZ8E+/U2XV11G8m2MZ7mk6bK8HjWIfo0aaY5/qjWSPD0xWBXAoJXO2EeOF4VyYNil6V79Dr9wbKYDW/owcCRFVpwR3RmDxfoB5MNa89uACNCdTHg==</t>
         </r>
       </text>
     </comment>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>指标名称</t>
   </si>
@@ -104,6 +104,9 @@
   <si>
     <t>数据来源：东方财富Choice数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据来源：东方财富Choice数据</t>
   </si>
 </sst>
 </file>
@@ -586,24 +589,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCB21CD-592B-4F14-A7FA-8CF82B116F9A}">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f>[1]!EM_EDB_N("2013-4-1","N","Columns=Name,Frequency,Unit,Source&amp;Order=2&amp;DateFormat=1&amp;Chart=2&amp;ClearArea=NULL&amp;CellFormat=1&amp;Layout=0")</f>
         <v>宏观数据</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -620,7 +623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -637,7 +640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -654,7 +657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -671,7 +674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>41394</v>
       </c>
@@ -688,7 +691,7 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>41425</v>
       </c>
@@ -705,7 +708,7 @@
         <v>6.99</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>41455</v>
       </c>
@@ -722,7 +725,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>41486</v>
       </c>
@@ -739,7 +742,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>41517</v>
       </c>
@@ -756,7 +759,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>41547</v>
       </c>
@@ -773,7 +776,7 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>41578</v>
       </c>
@@ -790,7 +793,7 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>41608</v>
       </c>
@@ -807,7 +810,7 @@
         <v>7.24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>41639</v>
       </c>
@@ -824,7 +827,7 @@
         <v>9.2200000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>41698</v>
       </c>
@@ -841,7 +844,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>41729</v>
       </c>
@@ -858,7 +861,7 @@
         <v>-5.32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>41759</v>
       </c>
@@ -875,7 +878,7 @@
         <v>-3.23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>41790</v>
       </c>
@@ -892,7 +895,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>41820</v>
       </c>
@@ -909,7 +912,7 @@
         <v>-0.53</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>41851</v>
       </c>
@@ -926,7 +929,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>41882</v>
       </c>
@@ -943,7 +946,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>41912</v>
       </c>
@@ -960,7 +963,7 @@
         <v>-0.96</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>41943</v>
       </c>
@@ -977,7 +980,7 @@
         <v>-0.97</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>41973</v>
       </c>
@@ -994,7 +997,7 @@
         <v>-0.77</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>42004</v>
       </c>
@@ -1011,7 +1014,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>42063</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>-5.92</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>42094</v>
       </c>
@@ -1045,7 +1048,7 @@
         <v>-1.41</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>42124</v>
       </c>
@@ -1062,7 +1065,7 @@
         <v>-3.43</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>42155</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>-4.1500000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>42185</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>-6.92</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>42216</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>-6.49</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>42247</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>-6.64</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>42277</v>
       </c>
@@ -1147,7 +1150,7 @@
         <v>-8.8000000000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>42308</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>-9.35</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>42338</v>
       </c>
@@ -1181,7 +1184,7 @@
         <v>-7.8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>42369</v>
       </c>
@@ -1198,7 +1201,7 @@
         <v>-14.3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>42429</v>
       </c>
@@ -1211,7 +1214,7 @@
       </c>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>42460</v>
       </c>
@@ -1228,7 +1231,7 @@
         <v>-5.3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>42490</v>
       </c>
@@ -1245,7 +1248,7 @@
         <v>-3.4</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>42521</v>
       </c>
@@ -1262,7 +1265,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>42551</v>
       </c>
@@ -1279,7 +1282,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>42582</v>
       </c>
@@ -1296,7 +1299,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>42613</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>42643</v>
       </c>
@@ -1330,7 +1333,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>42674</v>
       </c>
@@ -1347,7 +1350,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>42704</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>42735</v>
       </c>
@@ -1381,7 +1384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>42794</v>
       </c>
@@ -1394,7 +1397,7 @@
       </c>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>42825</v>
       </c>
@@ -1411,7 +1414,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>42855</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>42886</v>
       </c>
@@ -1445,7 +1448,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>42916</v>
       </c>
@@ -1462,7 +1465,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>42947</v>
       </c>
@@ -1479,7 +1482,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>42978</v>
       </c>
@@ -1496,7 +1499,7 @@
         <v>-5.3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>43008</v>
       </c>
@@ -1513,7 +1516,7 @@
         <v>-7.1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>43039</v>
       </c>
@@ -1530,7 +1533,7 @@
         <v>-12.6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>43069</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>-10.9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>43100</v>
       </c>
@@ -1564,7 +1567,7 @@
         <v>-7.1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>43159</v>
       </c>
@@ -1577,7 +1580,7 @@
       </c>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>43190</v>
       </c>
@@ -1594,7 +1597,7 @@
         <v>-4.7</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>43220</v>
       </c>
@@ -1611,7 +1614,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>43251</v>
       </c>
@@ -1628,7 +1631,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>43281</v>
       </c>
@@ -1645,7 +1648,7 @@
         <v>-4.7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>43312</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>43343</v>
       </c>
@@ -1679,7 +1682,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>43373</v>
       </c>
@@ -1696,7 +1699,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>43404</v>
       </c>
@@ -1713,7 +1716,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>43434</v>
       </c>
@@ -1730,7 +1733,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>43465</v>
       </c>
@@ -1747,7 +1750,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>43524</v>
       </c>
@@ -1760,7 +1763,7 @@
       </c>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>43555</v>
       </c>
@@ -1777,7 +1780,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>43585</v>
       </c>
@@ -1794,7 +1797,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>43616</v>
       </c>
@@ -1811,7 +1814,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>43646</v>
       </c>
@@ -1828,7 +1831,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>43677</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>43708</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>43738</v>
       </c>
@@ -1879,7 +1882,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>43769</v>
       </c>
@@ -1896,7 +1899,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>43799</v>
       </c>
@@ -1913,7 +1916,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>43830</v>
       </c>
@@ -1930,7 +1933,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>43890</v>
       </c>
@@ -1943,7 +1946,7 @@
       </c>
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>43921</v>
       </c>
@@ -1960,7 +1963,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>43951</v>
       </c>
@@ -1977,7 +1980,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>43982</v>
       </c>
@@ -1994,7 +1997,7 @@
         <v>-3.2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>44012</v>
       </c>
@@ -2011,7 +2014,7 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>44043</v>
       </c>
@@ -2028,7 +2031,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>44074</v>
       </c>
@@ -2045,7 +2048,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>44104</v>
       </c>
@@ -2062,7 +2065,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>44135</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>44165</v>
       </c>
@@ -2096,7 +2099,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>44196</v>
       </c>
@@ -2113,7 +2116,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>44255</v>
       </c>
@@ -2126,7 +2129,7 @@
       </c>
       <c r="E92" s="5"/>
     </row>
-    <row r="93" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>44286</v>
       </c>
@@ -2143,7 +2146,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>44316</v>
       </c>
@@ -2160,7 +2163,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>44347</v>
       </c>
@@ -2177,7 +2180,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>44377</v>
       </c>
@@ -2194,7 +2197,7 @@
         <v>-3.2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>44408</v>
       </c>
@@ -2211,7 +2214,7 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>44439</v>
       </c>
@@ -2228,7 +2231,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>44469</v>
       </c>
@@ -2245,7 +2248,7 @@
         <v>-9.6</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>44500</v>
       </c>
@@ -2262,7 +2265,7 @@
         <v>-11.3</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>44530</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>-17.399999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>44561</v>
       </c>
@@ -2296,7 +2299,7 @@
         <v>-10.7</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>44620</v>
       </c>
@@ -2309,7 +2312,7 @@
       </c>
       <c r="E103" s="5"/>
     </row>
-    <row r="104" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>44651</v>
       </c>
@@ -2326,7 +2329,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>44681</v>
       </c>
@@ -2343,7 +2346,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>44712</v>
       </c>
@@ -2360,7 +2363,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>44742</v>
       </c>
@@ -2377,7 +2380,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>44773</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>44804</v>
       </c>
@@ -2411,7 +2414,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>44834</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>44865</v>
       </c>
@@ -2445,7 +2448,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>44895</v>
       </c>
@@ -2462,7 +2465,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>44926</v>
       </c>
@@ -2479,7 +2482,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>44985</v>
       </c>
@@ -2492,7 +2495,7 @@
       </c>
       <c r="E114" s="5"/>
     </row>
-    <row r="115" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>45016</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>45046</v>
       </c>
@@ -2526,7 +2529,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>45077</v>
       </c>
@@ -2543,7 +2546,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>45107</v>
       </c>
@@ -2560,7 +2563,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>45138</v>
       </c>
@@ -2577,7 +2580,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>45169</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>45199</v>
       </c>
@@ -2611,7 +2614,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>45230</v>
       </c>
@@ -2628,9 +2631,31 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
+        <v>45260</v>
+      </c>
+      <c r="B123" s="5">
+        <v>4037</v>
+      </c>
+      <c r="C123" s="5">
+        <v>45040</v>
+      </c>
+      <c r="D123" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="E123" s="5">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/steel/data/up-stream/焦炭/焦炭产量.xlsx
+++ b/steel/data/up-stream/焦炭/焦炭产量.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Project\ffa\steel\data\up-stream\焦炭\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Projects\ffa\steel\data\up-stream\焦炭\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC62B69-3147-4AA9-89C5-C5D103ED16B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4A1BEC-523A-464C-9293-C722368291CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{76514104-05E1-4E33-BDA9-42E9BE5113C6}"/>
+    <workbookView xWindow="1837" yWindow="2213" windowWidth="28800" windowHeight="14685" xr2:uid="{76514104-05E1-4E33-BDA9-42E9BE5113C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>FUDIAN</author>
+    <author>howard</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{04B96402-AA68-4983-A011-808163A2BB47}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{287E0CAD-0914-4393-BEF8-0ECB3FA44625}">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>yVjpCgZpNvOHlEoAN60+iXcNR8qcjD2afR3U+XlDrUTEX5W5KWYQZl2WlS6znR8JdtRv8fy9hcGzGgX1t8jwbDwAx0EUQZsw3ZWNu8RJYhGO4TcQ9l1JkQHbe3Y9+FG0Tmzb5nAqIClWWKfYkQKr3HY3DNkUELEitQOt11rUEoTH9AyAvxvPtRPK/Y6fy4lztRWL3b59G1X0DqJyBOm3Kr9IpVHEqbaYQGwOYp96ngY3XEkU/HYsgIFBDln5ratCZy4TG/8RlD87yYJuUQnovpCg8aeykhWplpgX60WMzNwEEQqFR6PYKv2IIBn87r5IWpK9ISRYGlMwdIQ2b9TTs3aCeJqseIbpVwACP19elkrPv2PM/1UNQfHFjRkVer9a0M4m7rN8KiAnaQlOf870twbiYbOrTutqg3Ik5kHVydnovO3gIIvwsKvJ/P+erQVknSBj3dKaf22gHcRrQgn0LV6Jk0bS6/Gg0nhKMkU4aJ5ClW4hQ/s2eS+TfwrpStP1PM/8OBt0wEFTzcx6whuKJlkgD6k0fXvvShnh3kxAr+ov/LGsh9byd69bShqkjMfHouHaCXEb512+YIJRs4pDKkEU21WQ3RuHTRvo0T8znKJoVdlCLPX6qylqURQBQa3fFU/lf+fn0P+KkyezHxWLYqtLj+MfvarqnsI4FMTBjD1SQE/epb4bPKzTzPEsVpLUy2js8xRdyeZQOlu/D/0va56eiXq8QH3IxGrwj+WdKBCdfq0ZQ0xtWW1SEOhZRKigzz7xdzWypUmZR0FYS9/+z3m7tXn4eyX2nlsWIdm42kNpKglYuWvSyrzlPBy2s1TuweOSaF8ueTitZ+Uz/v55yucAEmafhC8JA6VfCMg/LtETxXSJteK5r8YCsfTcspiK9pSNpDXBiLzVzepqdDGZfZKWFz5s/HfHcIG1qjKYWuqwZPQe0dS0NauzdVjhCDICjXouijlUFgSl7ICiAYGRqUGGWMYzE3Pjf2DEmi+GjAkXEaZiQoVPaR7NLuIivsPD9hFnOKdwF0zgCOD6139kH9EX2OWyDV3Abph/PKi8wVPg7JImjztqXkY++vkn3R0zJ2/S6R1dSHq8RPxYIFA9hASSBqOymuuzdIyVVbEsk5VUEFAuy4vu5XkMptLowbqs43iPHIbaebVltIGjOrPxdk/OXZOm/jPHlgvBJ/Yv0DAWSFFtCtdYpZ/rK2XAAVl7DhhmFfyj/k81GxthJbIEu38WMPnLWXCmnR08B7H5hAGfM0cv8HF29Qd6M5UfVgjbioV9IeEIHzaR53q6o+IVBLU/Ru2KCi/Y5t3S7uo17UgtISeraXRy0wiUGIaxB55Eu5eWlZlZ8E+/U2XV11G8m2MZ7mk6bK8HjWIfo0aaY5/qjWSPD0xWBXAoJXO2EeOF4VyYNil6V79Dr9wbKYDW/owcCRFVpwR3RmDxfoB5MNa89uACNCdTHg==</t>
+          <t>yVjpCgZpNvMshuzLZFyXmprY7fPmIsMmF4zvzCGYtDntn2WueAxKMSA7kHPTMbOVwC/AomWRVFsIY11T+M7arY+b4YMAHVIjfm4B2vwmpSxeOOAVxPv412B2I07IuhWhJ3+gipSdD8LfHS9CsVEeZa3ciQ8pcxW6o+ArKUXh+5iSa/cCi8ZSV3nhBAE3Q4m1OBBzuaADEd8eWHSFsc+8sZbpH49V88P4HpDAAACjQQo4YG39Ds5jzw9ron7jLRurhIp31Yyf/3gjktSbO5coBVdUfDiDrf2BRorUVZWt5JSzzMrBXOzjcfW1F7E/zK3F1Dhh37mOMPuh22duQB66Wtcue1HMf84AgL4AxS9Zpv25BDaZa8ML4IzxU0ja+SAF6XuJ4oMsrNBHTBH3N5a7GTZ5J6jbW/7tYBV6M4h1bYQqxpovQZXga9UZT0+UVqsv4jz5FclWafNBPt+pgzBvAhkrakm7VZaiNghD0gZyBZ0x9Ihmuqus0cnFdzjuHm2/nLhxGqg/PjhWHL5pcyuyOG2n1otO1RNHHzMrLm01KBT13kCOY8mcg5jeOEaBnYcj1TsmFNrNcKFPsFg0myc5lA7HJBjs7jlMWJY2PHFPQED8uzc9TEiLNzc8dA6AhToVkvopILRpg/IeUjwTHgY3+3ml/ULqYGgFcDbw0TLPHs19qZ5UwBK02ClOiZG7F0z+Pi/nhyAl3AgK9HhW3R7rINz5nHCxaJlnLOmnYWWo++oBHDUHDt3kkqBN7C/1miJ46KtY7gzmSkYQmOgZ9bqXxRUFkyTkD1Axb4AUkXeWw/d2zpUlPjzD8yNoupNQkK6Sf6ik+VjgDSHPgo1Vhqnc1GY9TfJjg8BOB174Y3/KcINESnCbjC3Dq26dM+fCsfajY8XdBgeqOWdj7I99HMCmmF/XHFuPoxDcdqf8STe3bgqybGQWXMolTWPnTDgWaWOA+aFALoJOoO7OVuhtfIZIYwJIah67WFHaN4Mlw4KX8Ns=</t>
         </r>
       </text>
     </comment>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>指标名称</t>
   </si>
@@ -293,9 +293,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -333,7 +333,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -439,7 +439,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -581,7 +581,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -589,24 +589,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCB21CD-592B-4F14-A7FA-8CF82B116F9A}">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="str">
         <f>[1]!EM_EDB_N("2013-4-1","N","Columns=Name,Frequency,Unit,Source&amp;Order=2&amp;DateFormat=1&amp;Chart=2&amp;ClearArea=NULL&amp;CellFormat=1&amp;Layout=0")</f>
         <v>宏观数据</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -623,7 +625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -640,7 +642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -657,7 +659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -674,7 +676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>41394</v>
       </c>
@@ -691,7 +693,7 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>41425</v>
       </c>
@@ -708,7 +710,7 @@
         <v>6.99</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>41455</v>
       </c>
@@ -725,7 +727,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>41486</v>
       </c>
@@ -742,7 +744,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>41517</v>
       </c>
@@ -759,7 +761,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>41547</v>
       </c>
@@ -776,7 +778,7 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>41578</v>
       </c>
@@ -793,7 +795,7 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>41608</v>
       </c>
@@ -810,7 +812,7 @@
         <v>7.24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>41639</v>
       </c>
@@ -827,7 +829,7 @@
         <v>9.2200000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>41698</v>
       </c>
@@ -844,7 +846,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>41729</v>
       </c>
@@ -861,7 +863,7 @@
         <v>-5.32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>41759</v>
       </c>
@@ -878,7 +880,7 @@
         <v>-3.23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>41790</v>
       </c>
@@ -895,7 +897,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>41820</v>
       </c>
@@ -912,7 +914,7 @@
         <v>-0.53</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>41851</v>
       </c>
@@ -929,7 +931,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>41882</v>
       </c>
@@ -946,7 +948,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>41912</v>
       </c>
@@ -963,7 +965,7 @@
         <v>-0.96</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>41943</v>
       </c>
@@ -980,7 +982,7 @@
         <v>-0.97</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>41973</v>
       </c>
@@ -997,7 +999,7 @@
         <v>-0.77</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>42004</v>
       </c>
@@ -1014,7 +1016,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
         <v>42063</v>
       </c>
@@ -1031,7 +1033,7 @@
         <v>-5.92</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>42094</v>
       </c>
@@ -1048,7 +1050,7 @@
         <v>-1.41</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>42124</v>
       </c>
@@ -1065,7 +1067,7 @@
         <v>-3.43</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>42155</v>
       </c>
@@ -1082,7 +1084,7 @@
         <v>-4.1500000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>42185</v>
       </c>
@@ -1099,7 +1101,7 @@
         <v>-6.92</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>42216</v>
       </c>
@@ -1116,7 +1118,7 @@
         <v>-6.49</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
         <v>42247</v>
       </c>
@@ -1133,7 +1135,7 @@
         <v>-6.64</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
         <v>42277</v>
       </c>
@@ -1150,7 +1152,7 @@
         <v>-8.8000000000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
         <v>42308</v>
       </c>
@@ -1167,7 +1169,7 @@
         <v>-9.35</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4">
         <v>42338</v>
       </c>
@@ -1184,7 +1186,7 @@
         <v>-7.8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4">
         <v>42369</v>
       </c>
@@ -1201,7 +1203,7 @@
         <v>-14.3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4">
         <v>42429</v>
       </c>
@@ -1214,7 +1216,7 @@
       </c>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4">
         <v>42460</v>
       </c>
@@ -1231,7 +1233,7 @@
         <v>-5.3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4">
         <v>42490</v>
       </c>
@@ -1248,7 +1250,7 @@
         <v>-3.4</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4">
         <v>42521</v>
       </c>
@@ -1265,7 +1267,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4">
         <v>42551</v>
       </c>
@@ -1282,7 +1284,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4">
         <v>42582</v>
       </c>
@@ -1299,7 +1301,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4">
         <v>42613</v>
       </c>
@@ -1316,7 +1318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
         <v>42643</v>
       </c>
@@ -1333,7 +1335,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
         <v>42674</v>
       </c>
@@ -1350,7 +1352,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4">
         <v>42704</v>
       </c>
@@ -1367,7 +1369,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4">
         <v>42735</v>
       </c>
@@ -1384,7 +1386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
         <v>42794</v>
       </c>
@@ -1397,7 +1399,7 @@
       </c>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
         <v>42825</v>
       </c>
@@ -1414,7 +1416,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4">
         <v>42855</v>
       </c>
@@ -1431,7 +1433,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4">
         <v>42886</v>
       </c>
@@ -1448,7 +1450,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4">
         <v>42916</v>
       </c>
@@ -1465,7 +1467,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4">
         <v>42947</v>
       </c>
@@ -1482,7 +1484,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4">
         <v>42978</v>
       </c>
@@ -1499,7 +1501,7 @@
         <v>-5.3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4">
         <v>43008</v>
       </c>
@@ -1516,7 +1518,7 @@
         <v>-7.1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4">
         <v>43039</v>
       </c>
@@ -1533,7 +1535,7 @@
         <v>-12.6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4">
         <v>43069</v>
       </c>
@@ -1550,7 +1552,7 @@
         <v>-10.9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4">
         <v>43100</v>
       </c>
@@ -1567,7 +1569,7 @@
         <v>-7.1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4">
         <v>43159</v>
       </c>
@@ -1580,7 +1582,7 @@
       </c>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4">
         <v>43190</v>
       </c>
@@ -1597,7 +1599,7 @@
         <v>-4.7</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4">
         <v>43220</v>
       </c>
@@ -1614,7 +1616,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4">
         <v>43251</v>
       </c>
@@ -1631,7 +1633,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4">
         <v>43281</v>
       </c>
@@ -1648,7 +1650,7 @@
         <v>-4.7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4">
         <v>43312</v>
       </c>
@@ -1665,7 +1667,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4">
         <v>43343</v>
       </c>
@@ -1682,7 +1684,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4">
         <v>43373</v>
       </c>
@@ -1699,7 +1701,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4">
         <v>43404</v>
       </c>
@@ -1716,7 +1718,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
         <v>43434</v>
       </c>
@@ -1733,7 +1735,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
         <v>43465</v>
       </c>
@@ -1750,7 +1752,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4">
         <v>43524</v>
       </c>
@@ -1763,7 +1765,7 @@
       </c>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4">
         <v>43555</v>
       </c>
@@ -1780,7 +1782,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4">
         <v>43585</v>
       </c>
@@ -1797,7 +1799,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4">
         <v>43616</v>
       </c>
@@ -1814,7 +1816,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4">
         <v>43646</v>
       </c>
@@ -1831,7 +1833,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4">
         <v>43677</v>
       </c>
@@ -1848,7 +1850,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4">
         <v>43708</v>
       </c>
@@ -1865,7 +1867,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4">
         <v>43738</v>
       </c>
@@ -1882,7 +1884,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4">
         <v>43769</v>
       </c>
@@ -1899,7 +1901,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4">
         <v>43799</v>
       </c>
@@ -1916,7 +1918,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4">
         <v>43830</v>
       </c>
@@ -1933,7 +1935,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4">
         <v>43890</v>
       </c>
@@ -1946,7 +1948,7 @@
       </c>
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4">
         <v>43921</v>
       </c>
@@ -1963,7 +1965,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4">
         <v>43951</v>
       </c>
@@ -1980,7 +1982,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4">
         <v>43982</v>
       </c>
@@ -1997,7 +1999,7 @@
         <v>-3.2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4">
         <v>44012</v>
       </c>
@@ -2014,7 +2016,7 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4">
         <v>44043</v>
       </c>
@@ -2031,7 +2033,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4">
         <v>44074</v>
       </c>
@@ -2048,7 +2050,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4">
         <v>44104</v>
       </c>
@@ -2065,7 +2067,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4">
         <v>44135</v>
       </c>
@@ -2082,7 +2084,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4">
         <v>44165</v>
       </c>
@@ -2099,7 +2101,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4">
         <v>44196</v>
       </c>
@@ -2116,7 +2118,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4">
         <v>44255</v>
       </c>
@@ -2129,7 +2131,7 @@
       </c>
       <c r="E92" s="5"/>
     </row>
-    <row r="93" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4">
         <v>44286</v>
       </c>
@@ -2146,7 +2148,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4">
         <v>44316</v>
       </c>
@@ -2163,7 +2165,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4">
         <v>44347</v>
       </c>
@@ -2180,7 +2182,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4">
         <v>44377</v>
       </c>
@@ -2197,7 +2199,7 @@
         <v>-3.2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4">
         <v>44408</v>
       </c>
@@ -2214,7 +2216,7 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4">
         <v>44439</v>
       </c>
@@ -2231,7 +2233,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4">
         <v>44469</v>
       </c>
@@ -2248,7 +2250,7 @@
         <v>-9.6</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4">
         <v>44500</v>
       </c>
@@ -2265,7 +2267,7 @@
         <v>-11.3</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4">
         <v>44530</v>
       </c>
@@ -2282,7 +2284,7 @@
         <v>-17.399999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4">
         <v>44561</v>
       </c>
@@ -2299,7 +2301,7 @@
         <v>-10.7</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4">
         <v>44620</v>
       </c>
@@ -2312,7 +2314,7 @@
       </c>
       <c r="E103" s="5"/>
     </row>
-    <row r="104" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4">
         <v>44651</v>
       </c>
@@ -2329,7 +2331,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4">
         <v>44681</v>
       </c>
@@ -2346,7 +2348,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4">
         <v>44712</v>
       </c>
@@ -2363,7 +2365,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4">
         <v>44742</v>
       </c>
@@ -2380,7 +2382,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4">
         <v>44773</v>
       </c>
@@ -2397,7 +2399,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4">
         <v>44804</v>
       </c>
@@ -2414,7 +2416,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4">
         <v>44834</v>
       </c>
@@ -2431,7 +2433,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4">
         <v>44865</v>
       </c>
@@ -2448,7 +2450,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4">
         <v>44895</v>
       </c>
@@ -2465,7 +2467,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4">
         <v>44926</v>
       </c>
@@ -2482,7 +2484,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4">
         <v>44985</v>
       </c>
@@ -2495,7 +2497,7 @@
       </c>
       <c r="E114" s="5"/>
     </row>
-    <row r="115" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4">
         <v>45016</v>
       </c>
@@ -2512,7 +2514,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4">
         <v>45046</v>
       </c>
@@ -2529,7 +2531,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4">
         <v>45077</v>
       </c>
@@ -2546,7 +2548,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4">
         <v>45107</v>
       </c>
@@ -2563,7 +2565,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4">
         <v>45138</v>
       </c>
@@ -2580,7 +2582,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4">
         <v>45169</v>
       </c>
@@ -2597,7 +2599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4">
         <v>45199</v>
       </c>
@@ -2614,7 +2616,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4">
         <v>45230</v>
       </c>
@@ -2631,7 +2633,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4">
         <v>45260</v>
       </c>
@@ -2648,13 +2650,35 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="4">
+        <v>45291</v>
+      </c>
+      <c r="B124" s="5">
+        <v>4128</v>
+      </c>
+      <c r="C124" s="5">
+        <v>49260</v>
+      </c>
+      <c r="D124" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="E124" s="5">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
     </row>
